--- a/DateBase/orders/Dang Nguyen48_2025-12-19.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-19.xlsx
@@ -694,6 +694,9 @@
       <c r="C31" t="str">
         <v>587_洋牡丹橙_undefined_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -755,7 +758,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151015151571571010101061261515151010101010510151550</v>
+        <v>0151015151571571010101061261515151010101010510151555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-19.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -698,9 +698,58 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>859_喷色小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>546_非洲菊绿宝石_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>42_拉丝黄_Spider Yellow_Gerbera L._20stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L37"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -758,7 +807,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151015151571571010101061261515151010101010510151555</v>
+        <v>01510151515715710101010612615151510101010105101515551020255155</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-19.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-19.xlsx
@@ -809,6 +809,9 @@
       <c r="G2" t="str">
         <v>01510151515715710101010612615151510101010105101515551020255155</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
